--- a/cea/databases/SIN/archetypes/system_controls.xlsx
+++ b/cea/databases/SIN/archetypes/system_controls.xlsx
@@ -19,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
   <si>
     <t>has-heating-season</t>
   </si>
@@ -39,21 +45,29 @@
     <t>cooling-season-end</t>
   </si>
   <si>
+    <t>FALSE</t>
+  </si>
+  <si>
     <t>01-01</t>
   </si>
   <si>
     <t>12-31</t>
-  </si>
-  <si>
-    <t>FALSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,8 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -364,55 +380,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
